--- a/ai-agent/Product_Export.xlsx
+++ b/ai-agent/Product_Export.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Mytask\HackFusion\ai-agent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUMIT CHATUR\Ai ph\Hackfusion\ai-agent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BFEE3A-3A3E-477C-8A82-E85022384650}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33418EFB-B515-475D-A592-F1A5529316DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1650,11 +1650,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1960,7 +1961,7 @@
   <dimension ref="A1:M194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2048,7 +2049,7 @@
       <c r="I2">
         <v>600</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>21.428571428571431</v>
       </c>
       <c r="K2" t="s">
@@ -2089,7 +2090,7 @@
       <c r="I3">
         <v>1500</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>50</v>
       </c>
       <c r="K3" t="s">
@@ -2130,7 +2131,7 @@
       <c r="I4">
         <v>1000</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>50</v>
       </c>
       <c r="K4" t="s">
@@ -2171,7 +2172,7 @@
       <c r="I5">
         <v>2000</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>100</v>
       </c>
       <c r="K5" t="s">
@@ -2212,7 +2213,7 @@
       <c r="I6">
         <v>3000</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>107.1428571428571</v>
       </c>
       <c r="K6" t="s">
@@ -2253,7 +2254,7 @@
       <c r="I7">
         <v>4000</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>400</v>
       </c>
       <c r="K7" t="s">
@@ -2294,7 +2295,7 @@
       <c r="I8">
         <v>5000</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>500</v>
       </c>
       <c r="K8" t="s">
@@ -2335,7 +2336,7 @@
       <c r="I9">
         <v>6000</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>120</v>
       </c>
       <c r="K9" t="s">
@@ -2376,7 +2377,7 @@
       <c r="I10">
         <v>7000</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <v>70</v>
       </c>
       <c r="K10" t="s">
@@ -2417,7 +2418,7 @@
       <c r="I11">
         <v>8000</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <v>80</v>
       </c>
       <c r="K11" t="s">
@@ -2458,7 +2459,7 @@
       <c r="I12">
         <v>9000</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <v>321.42857142857139</v>
       </c>
       <c r="K12" t="s">
@@ -2499,7 +2500,7 @@
       <c r="I13">
         <v>10000</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="2">
         <v>714.28571428571433</v>
       </c>
       <c r="K13" t="s">
@@ -2540,7 +2541,7 @@
       <c r="I14">
         <v>11000</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="2">
         <v>110</v>
       </c>
       <c r="K14" t="s">
@@ -2581,7 +2582,7 @@
       <c r="I15">
         <v>100</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="2">
         <v>3.5714285714285721</v>
       </c>
       <c r="K15" t="s">
@@ -2622,7 +2623,7 @@
       <c r="I16">
         <v>200</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="2">
         <v>14.28571428571429</v>
       </c>
       <c r="K16" t="s">
@@ -2663,7 +2664,7 @@
       <c r="I17">
         <v>300</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="2">
         <v>21.428571428571431</v>
       </c>
       <c r="K17" t="s">
@@ -2704,7 +2705,7 @@
       <c r="I18">
         <v>400</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="2">
         <v>4</v>
       </c>
       <c r="K18" t="s">
@@ -2745,7 +2746,7 @@
       <c r="I19">
         <v>500</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="2">
         <v>16.666666666666671</v>
       </c>
       <c r="K19" t="s">
@@ -2786,7 +2787,7 @@
       <c r="I20">
         <v>600</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="2">
         <v>42.857142857142847</v>
       </c>
       <c r="K20" t="s">
@@ -2827,7 +2828,7 @@
       <c r="I21">
         <v>700</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="2">
         <v>23.333333333333329</v>
       </c>
       <c r="K21" t="s">
@@ -2868,7 +2869,7 @@
       <c r="I22">
         <v>800</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="2">
         <v>80</v>
       </c>
       <c r="K22" t="s">
@@ -2909,7 +2910,7 @@
       <c r="I23">
         <v>900</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="2">
         <v>90</v>
       </c>
       <c r="K23" t="s">
@@ -2950,7 +2951,7 @@
       <c r="I24">
         <v>1000</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="2">
         <v>50</v>
       </c>
       <c r="K24" t="s">
@@ -2991,7 +2992,7 @@
       <c r="I25">
         <v>1100</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="2">
         <v>55</v>
       </c>
       <c r="K25" t="s">
@@ -3032,7 +3033,7 @@
       <c r="I26">
         <v>1200</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="2">
         <v>42.857142857142847</v>
       </c>
       <c r="K26" t="s">
@@ -3073,7 +3074,7 @@
       <c r="I27">
         <v>1300</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="2">
         <v>13</v>
       </c>
       <c r="K27" t="s">
@@ -3114,7 +3115,7 @@
       <c r="I28">
         <v>1400</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="2">
         <v>70</v>
       </c>
       <c r="K28" t="s">
@@ -3155,7 +3156,7 @@
       <c r="I29">
         <v>1500</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="2">
         <v>150</v>
       </c>
       <c r="K29" t="s">
@@ -3196,7 +3197,7 @@
       <c r="I30">
         <v>1600</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="2">
         <v>160</v>
       </c>
       <c r="K30" t="s">
@@ -3237,7 +3238,7 @@
       <c r="I31">
         <v>1700</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="2">
         <v>85</v>
       </c>
       <c r="K31" t="s">
@@ -3278,7 +3279,7 @@
       <c r="I32">
         <v>1800</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="2">
         <v>64.285714285714292</v>
       </c>
       <c r="K32" t="s">
@@ -3319,7 +3320,7 @@
       <c r="I33">
         <v>1900</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="2">
         <v>19</v>
       </c>
       <c r="K33" t="s">
@@ -3360,7 +3361,7 @@
       <c r="I34">
         <v>2000</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="2">
         <v>71.428571428571431</v>
       </c>
       <c r="K34" t="s">
@@ -3401,7 +3402,7 @@
       <c r="I35">
         <v>2100</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="2">
         <v>75</v>
       </c>
       <c r="K35" t="s">
@@ -3442,7 +3443,7 @@
       <c r="I36">
         <v>2200</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="2">
         <v>78.571428571428569</v>
       </c>
       <c r="K36" t="s">
@@ -3483,7 +3484,7 @@
       <c r="I37">
         <v>2300</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="2">
         <v>82.142857142857139</v>
       </c>
       <c r="K37" t="s">
@@ -3524,7 +3525,7 @@
       <c r="I38">
         <v>2400</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="2">
         <v>48</v>
       </c>
       <c r="K38" t="s">
@@ -3565,7 +3566,7 @@
       <c r="I39">
         <v>2500</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="2">
         <v>250</v>
       </c>
       <c r="K39" t="s">
@@ -3606,7 +3607,7 @@
       <c r="I40">
         <v>2600</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="2">
         <v>86.666666666666671</v>
       </c>
       <c r="K40" t="s">
@@ -3647,7 +3648,7 @@
       <c r="I41">
         <v>2700</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="2">
         <v>54</v>
       </c>
       <c r="K41" t="s">
@@ -3688,7 +3689,7 @@
       <c r="I42">
         <v>2800</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="2">
         <v>56</v>
       </c>
       <c r="K42" t="s">
@@ -3729,7 +3730,7 @@
       <c r="I43">
         <v>2900</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="2">
         <v>58</v>
       </c>
       <c r="K43" t="s">
@@ -3770,7 +3771,7 @@
       <c r="I44">
         <v>3000</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="2">
         <v>214.28571428571431</v>
       </c>
       <c r="K44" t="s">
@@ -3811,7 +3812,7 @@
       <c r="I45">
         <v>3100</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="2">
         <v>155</v>
       </c>
       <c r="K45" t="s">
@@ -3852,7 +3853,7 @@
       <c r="I46">
         <v>3200</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="2">
         <v>32</v>
       </c>
       <c r="K46" t="s">
@@ -3893,7 +3894,7 @@
       <c r="I47">
         <v>3300</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="2">
         <v>165</v>
       </c>
       <c r="K47" t="s">
@@ -3934,7 +3935,7 @@
       <c r="I48">
         <v>3400</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="2">
         <v>34</v>
       </c>
       <c r="K48" t="s">
@@ -3975,7 +3976,7 @@
       <c r="I49">
         <v>3500</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="2">
         <v>116.6666666666667</v>
       </c>
       <c r="K49" t="s">
@@ -4016,7 +4017,7 @@
       <c r="I50">
         <v>3600</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="2">
         <v>36</v>
       </c>
       <c r="K50" t="s">
@@ -4057,7 +4058,7 @@
       <c r="I51">
         <v>3700</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="2">
         <v>123.3333333333333</v>
       </c>
       <c r="K51" t="s">
@@ -4098,7 +4099,7 @@
       <c r="I52">
         <v>3800</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="2">
         <v>190</v>
       </c>
       <c r="K52" t="s">
@@ -4139,7 +4140,7 @@
       <c r="I53">
         <v>3900</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="2">
         <v>39</v>
       </c>
       <c r="K53" t="s">
@@ -4180,7 +4181,7 @@
       <c r="I54">
         <v>4000</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="2">
         <v>40</v>
       </c>
       <c r="K54" t="s">
@@ -4221,7 +4222,7 @@
       <c r="I55">
         <v>4100</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="2">
         <v>146.42857142857139</v>
       </c>
       <c r="K55" t="s">
@@ -4262,7 +4263,7 @@
       <c r="I56">
         <v>4200</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="2">
         <v>210</v>
       </c>
       <c r="K56" t="s">
@@ -4303,7 +4304,7 @@
       <c r="I57">
         <v>4300</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="2">
         <v>430</v>
       </c>
       <c r="K57" t="s">
@@ -4344,7 +4345,7 @@
       <c r="I58">
         <v>4400</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="2">
         <v>440</v>
       </c>
       <c r="K58" t="s">
@@ -4385,7 +4386,7 @@
       <c r="I59">
         <v>4500</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="2">
         <v>450</v>
       </c>
       <c r="K59" t="s">
@@ -4426,7 +4427,7 @@
       <c r="I60">
         <v>4600</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="2">
         <v>164.28571428571431</v>
       </c>
       <c r="K60" t="s">
@@ -4467,7 +4468,7 @@
       <c r="I61">
         <v>4700</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="2">
         <v>235</v>
       </c>
       <c r="K61" t="s">
@@ -4508,7 +4509,7 @@
       <c r="I62">
         <v>4800</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="2">
         <v>171.42857142857139</v>
       </c>
       <c r="K62" t="s">
@@ -4549,7 +4550,7 @@
       <c r="I63">
         <v>4900</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="2">
         <v>490</v>
       </c>
       <c r="K63" t="s">
@@ -4590,7 +4591,7 @@
       <c r="I64">
         <v>5000</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="2">
         <v>357.14285714285722</v>
       </c>
       <c r="K64" t="s">
@@ -4631,7 +4632,7 @@
       <c r="I65">
         <v>5100</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="2">
         <v>510</v>
       </c>
       <c r="K65" t="s">
@@ -4672,7 +4673,7 @@
       <c r="I66">
         <v>5200</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="2">
         <v>520</v>
       </c>
       <c r="K66" t="s">
@@ -4713,7 +4714,7 @@
       <c r="I67">
         <v>5300</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="2">
         <v>106</v>
       </c>
       <c r="K67" t="s">
@@ -4754,7 +4755,7 @@
       <c r="I68">
         <v>5400</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="2">
         <v>270</v>
       </c>
       <c r="K68" t="s">
@@ -4795,7 +4796,7 @@
       <c r="I69">
         <v>5500</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="2">
         <v>392.85714285714278</v>
       </c>
       <c r="K69" t="s">
@@ -4836,7 +4837,7 @@
       <c r="I70">
         <v>5600</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="2">
         <v>56</v>
       </c>
       <c r="K70" t="s">
@@ -4877,7 +4878,7 @@
       <c r="I71">
         <v>5700</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="2">
         <v>285</v>
       </c>
       <c r="K71" t="s">
@@ -4918,7 +4919,7 @@
       <c r="I72">
         <v>5800</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="2">
         <v>580</v>
       </c>
       <c r="K72" t="s">
@@ -4959,7 +4960,7 @@
       <c r="I73">
         <v>5900</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="2">
         <v>196.66666666666671</v>
       </c>
       <c r="K73" t="s">
@@ -5000,7 +5001,7 @@
       <c r="I74">
         <v>6000</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="2">
         <v>200</v>
       </c>
       <c r="K74" t="s">
@@ -5041,7 +5042,7 @@
       <c r="I75">
         <v>6100</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="2">
         <v>217.85714285714289</v>
       </c>
       <c r="K75" t="s">
@@ -5082,7 +5083,7 @@
       <c r="I76">
         <v>6200</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="2">
         <v>442.85714285714278</v>
       </c>
       <c r="K76" t="s">
@@ -5123,7 +5124,7 @@
       <c r="I77">
         <v>6300</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="2">
         <v>315</v>
       </c>
       <c r="K77" t="s">
@@ -5164,7 +5165,7 @@
       <c r="I78">
         <v>6400</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="2">
         <v>64</v>
       </c>
       <c r="K78" t="s">
@@ -5205,7 +5206,7 @@
       <c r="I79">
         <v>6500</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="2">
         <v>325</v>
       </c>
       <c r="K79" t="s">
@@ -5246,7 +5247,7 @@
       <c r="I80">
         <v>6600</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="2">
         <v>660</v>
       </c>
       <c r="K80" t="s">
@@ -5287,7 +5288,7 @@
       <c r="I81">
         <v>6700</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="2">
         <v>223.33333333333329</v>
       </c>
       <c r="K81" t="s">
@@ -5328,7 +5329,7 @@
       <c r="I82">
         <v>6800</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="2">
         <v>485.71428571428572</v>
       </c>
       <c r="K82" t="s">
@@ -5369,7 +5370,7 @@
       <c r="I83">
         <v>6900</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="2">
         <v>492.85714285714278</v>
       </c>
       <c r="K83" t="s">
@@ -5410,7 +5411,7 @@
       <c r="I84">
         <v>7000</v>
       </c>
-      <c r="J84">
+      <c r="J84" s="2">
         <v>700</v>
       </c>
       <c r="K84" t="s">
@@ -5451,7 +5452,7 @@
       <c r="I85">
         <v>7100</v>
       </c>
-      <c r="J85">
+      <c r="J85" s="2">
         <v>71</v>
       </c>
       <c r="K85" t="s">
@@ -5492,7 +5493,7 @@
       <c r="I86">
         <v>7200</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="2">
         <v>72</v>
       </c>
       <c r="K86" t="s">
@@ -5533,7 +5534,7 @@
       <c r="I87">
         <v>7300</v>
       </c>
-      <c r="J87">
+      <c r="J87" s="2">
         <v>146</v>
       </c>
       <c r="K87" t="s">
@@ -5574,7 +5575,7 @@
       <c r="I88">
         <v>7400</v>
       </c>
-      <c r="J88">
+      <c r="J88" s="2">
         <v>740</v>
       </c>
       <c r="K88" t="s">
@@ -5615,7 +5616,7 @@
       <c r="I89">
         <v>7500</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="2">
         <v>150</v>
       </c>
       <c r="K89" t="s">
@@ -5656,7 +5657,7 @@
       <c r="I90">
         <v>7600</v>
       </c>
-      <c r="J90">
+      <c r="J90" s="2">
         <v>253.33333333333329</v>
       </c>
       <c r="K90" t="s">
@@ -5697,7 +5698,7 @@
       <c r="I91">
         <v>7700</v>
       </c>
-      <c r="J91">
+      <c r="J91" s="2">
         <v>256.66666666666669</v>
       </c>
       <c r="K91" t="s">
@@ -5738,7 +5739,7 @@
       <c r="I92">
         <v>7800</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="2">
         <v>390</v>
       </c>
       <c r="K92" t="s">
@@ -5779,7 +5780,7 @@
       <c r="I93">
         <v>7900</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="2">
         <v>564.28571428571433</v>
       </c>
       <c r="K93" t="s">
@@ -5820,7 +5821,7 @@
       <c r="I94">
         <v>8000</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="2">
         <v>80</v>
       </c>
       <c r="K94" t="s">
@@ -5861,7 +5862,7 @@
       <c r="I95">
         <v>8100</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="2">
         <v>270</v>
       </c>
       <c r="K95" t="s">
@@ -5902,7 +5903,7 @@
       <c r="I96">
         <v>8200</v>
       </c>
-      <c r="J96">
+      <c r="J96" s="2">
         <v>82</v>
       </c>
       <c r="K96" t="s">
@@ -5943,7 +5944,7 @@
       <c r="I97">
         <v>8300</v>
       </c>
-      <c r="J97">
+      <c r="J97" s="2">
         <v>592.85714285714289</v>
       </c>
       <c r="K97" t="s">
@@ -5984,7 +5985,7 @@
       <c r="I98">
         <v>8400</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="2">
         <v>168</v>
       </c>
       <c r="K98" t="s">
@@ -6025,7 +6026,7 @@
       <c r="I99">
         <v>8500</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="2">
         <v>850</v>
       </c>
       <c r="K99" t="s">
@@ -6066,7 +6067,7 @@
       <c r="I100">
         <v>8600</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="2">
         <v>172</v>
       </c>
       <c r="K100" t="s">
@@ -6107,7 +6108,7 @@
       <c r="I101">
         <v>8700</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="2">
         <v>621.42857142857144</v>
       </c>
       <c r="K101" t="s">
@@ -6148,7 +6149,7 @@
       <c r="I102">
         <v>8800</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="2">
         <v>880</v>
       </c>
       <c r="K102" t="s">
@@ -6189,7 +6190,7 @@
       <c r="I103">
         <v>8900</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="2">
         <v>890</v>
       </c>
       <c r="K103" t="s">
@@ -6230,7 +6231,7 @@
       <c r="I104">
         <v>9000</v>
       </c>
-      <c r="J104">
+      <c r="J104" s="2">
         <v>90</v>
       </c>
       <c r="K104" t="s">
@@ -6271,7 +6272,7 @@
       <c r="I105">
         <v>9100</v>
       </c>
-      <c r="J105">
+      <c r="J105" s="2">
         <v>182</v>
       </c>
       <c r="K105" t="s">
@@ -6312,7 +6313,7 @@
       <c r="I106">
         <v>9200</v>
       </c>
-      <c r="J106">
+      <c r="J106" s="2">
         <v>657.14285714285711</v>
       </c>
       <c r="K106" t="s">
@@ -6353,7 +6354,7 @@
       <c r="I107">
         <v>9300</v>
       </c>
-      <c r="J107">
+      <c r="J107" s="2">
         <v>310</v>
       </c>
       <c r="K107" t="s">
@@ -6394,7 +6395,7 @@
       <c r="I108">
         <v>9400</v>
       </c>
-      <c r="J108">
+      <c r="J108" s="2">
         <v>94</v>
       </c>
       <c r="K108" t="s">
@@ -6435,7 +6436,7 @@
       <c r="I109">
         <v>9500</v>
       </c>
-      <c r="J109">
+      <c r="J109" s="2">
         <v>339.28571428571428</v>
       </c>
       <c r="K109" t="s">
@@ -6476,7 +6477,7 @@
       <c r="I110">
         <v>9600</v>
       </c>
-      <c r="J110">
+      <c r="J110" s="2">
         <v>960</v>
       </c>
       <c r="K110" t="s">
@@ -6517,7 +6518,7 @@
       <c r="I111">
         <v>9700</v>
       </c>
-      <c r="J111">
+      <c r="J111" s="2">
         <v>346.42857142857139</v>
       </c>
       <c r="K111" t="s">
@@ -6558,7 +6559,7 @@
       <c r="I112">
         <v>9800</v>
       </c>
-      <c r="J112">
+      <c r="J112" s="2">
         <v>326.66666666666669</v>
       </c>
       <c r="K112" t="s">
@@ -6599,7 +6600,7 @@
       <c r="I113">
         <v>9900</v>
       </c>
-      <c r="J113">
+      <c r="J113" s="2">
         <v>707.14285714285711</v>
       </c>
       <c r="K113" t="s">
@@ -6640,7 +6641,7 @@
       <c r="I114">
         <v>50</v>
       </c>
-      <c r="J114">
+      <c r="J114" s="2">
         <v>1.666666666666667</v>
       </c>
       <c r="K114" t="s">
@@ -6681,7 +6682,7 @@
       <c r="I115">
         <v>60</v>
       </c>
-      <c r="J115">
+      <c r="J115" s="2">
         <v>6</v>
       </c>
       <c r="K115" t="s">
@@ -6722,7 +6723,7 @@
       <c r="I116">
         <v>70</v>
       </c>
-      <c r="J116">
+      <c r="J116" s="2">
         <v>2.333333333333333</v>
       </c>
       <c r="K116" t="s">
@@ -6763,7 +6764,7 @@
       <c r="I117">
         <v>80</v>
       </c>
-      <c r="J117">
+      <c r="J117" s="2">
         <v>2.666666666666667</v>
       </c>
       <c r="K117" t="s">
@@ -6804,7 +6805,7 @@
       <c r="I118">
         <v>90</v>
       </c>
-      <c r="J118">
+      <c r="J118" s="2">
         <v>3.214285714285714</v>
       </c>
       <c r="K118" t="s">
@@ -6845,7 +6846,7 @@
       <c r="I119">
         <v>100</v>
       </c>
-      <c r="J119">
+      <c r="J119" s="2">
         <v>3.5714285714285721</v>
       </c>
       <c r="K119" t="s">
@@ -6886,7 +6887,7 @@
       <c r="I120">
         <v>110</v>
       </c>
-      <c r="J120">
+      <c r="J120" s="2">
         <v>11</v>
       </c>
       <c r="K120" t="s">
@@ -6927,7 +6928,7 @@
       <c r="I121">
         <v>120</v>
       </c>
-      <c r="J121">
+      <c r="J121" s="2">
         <v>12</v>
       </c>
       <c r="K121" t="s">
@@ -6968,7 +6969,7 @@
       <c r="I122">
         <v>130</v>
       </c>
-      <c r="J122">
+      <c r="J122" s="2">
         <v>4.333333333333333</v>
       </c>
       <c r="K122" t="s">
@@ -7009,7 +7010,7 @@
       <c r="I123">
         <v>140</v>
       </c>
-      <c r="J123">
+      <c r="J123" s="2">
         <v>5</v>
       </c>
       <c r="K123" t="s">
@@ -7050,7 +7051,7 @@
       <c r="I124">
         <v>150</v>
       </c>
-      <c r="J124">
+      <c r="J124" s="2">
         <v>15</v>
       </c>
       <c r="K124" t="s">
@@ -7091,7 +7092,7 @@
       <c r="I125">
         <v>160</v>
       </c>
-      <c r="J125">
+      <c r="J125" s="2">
         <v>5.7142857142857144</v>
       </c>
       <c r="K125" t="s">
@@ -7132,7 +7133,7 @@
       <c r="I126">
         <v>170</v>
       </c>
-      <c r="J126">
+      <c r="J126" s="2">
         <v>5.666666666666667</v>
       </c>
       <c r="K126" t="s">
@@ -7173,7 +7174,7 @@
       <c r="I127">
         <v>180</v>
       </c>
-      <c r="J127">
+      <c r="J127" s="2">
         <v>6</v>
       </c>
       <c r="K127" t="s">
@@ -7214,7 +7215,7 @@
       <c r="I128">
         <v>190</v>
       </c>
-      <c r="J128">
+      <c r="J128" s="2">
         <v>1.9</v>
       </c>
       <c r="K128" t="s">
@@ -7255,7 +7256,7 @@
       <c r="I129">
         <v>200</v>
       </c>
-      <c r="J129">
+      <c r="J129" s="2">
         <v>6.666666666666667</v>
       </c>
       <c r="K129" t="s">
@@ -7296,7 +7297,7 @@
       <c r="I130">
         <v>210</v>
       </c>
-      <c r="J130">
+      <c r="J130" s="2">
         <v>15</v>
       </c>
       <c r="K130" t="s">
@@ -7337,7 +7338,7 @@
       <c r="I131">
         <v>220</v>
       </c>
-      <c r="J131">
+      <c r="J131" s="2">
         <v>15.71428571428571</v>
       </c>
       <c r="K131" t="s">
@@ -7378,7 +7379,7 @@
       <c r="I132">
         <v>230</v>
       </c>
-      <c r="J132">
+      <c r="J132" s="2">
         <v>4.5999999999999996</v>
       </c>
       <c r="K132" t="s">
@@ -7419,7 +7420,7 @@
       <c r="I133">
         <v>240</v>
       </c>
-      <c r="J133">
+      <c r="J133" s="2">
         <v>17.142857142857139</v>
       </c>
       <c r="K133" t="s">
@@ -7460,7 +7461,7 @@
       <c r="I134">
         <v>250</v>
       </c>
-      <c r="J134">
+      <c r="J134" s="2">
         <v>8.3333333333333339</v>
       </c>
       <c r="K134" t="s">
@@ -7501,7 +7502,7 @@
       <c r="I135">
         <v>260</v>
       </c>
-      <c r="J135">
+      <c r="J135" s="2">
         <v>26</v>
       </c>
       <c r="K135" t="s">
@@ -7542,7 +7543,7 @@
       <c r="I136">
         <v>270</v>
       </c>
-      <c r="J136">
+      <c r="J136" s="2">
         <v>27</v>
       </c>
       <c r="K136" t="s">
@@ -7583,7 +7584,7 @@
       <c r="I137">
         <v>280</v>
       </c>
-      <c r="J137">
+      <c r="J137" s="2">
         <v>10</v>
       </c>
       <c r="K137" t="s">
@@ -7624,7 +7625,7 @@
       <c r="I138">
         <v>290</v>
       </c>
-      <c r="J138">
+      <c r="J138" s="2">
         <v>20.714285714285719</v>
       </c>
       <c r="K138" t="s">
@@ -7665,7 +7666,7 @@
       <c r="I139">
         <v>300</v>
       </c>
-      <c r="J139">
+      <c r="J139" s="2">
         <v>15</v>
       </c>
       <c r="K139" t="s">
@@ -7706,7 +7707,7 @@
       <c r="I140">
         <v>310</v>
       </c>
-      <c r="J140">
+      <c r="J140" s="2">
         <v>11.071428571428569</v>
       </c>
       <c r="K140" t="s">
@@ -7747,7 +7748,7 @@
       <c r="I141">
         <v>320</v>
       </c>
-      <c r="J141">
+      <c r="J141" s="2">
         <v>3.2</v>
       </c>
       <c r="K141" t="s">
@@ -7788,7 +7789,7 @@
       <c r="I142">
         <v>330</v>
       </c>
-      <c r="J142">
+      <c r="J142" s="2">
         <v>6.6</v>
       </c>
       <c r="K142" t="s">
@@ -7829,7 +7830,7 @@
       <c r="I143">
         <v>340</v>
       </c>
-      <c r="J143">
+      <c r="J143" s="2">
         <v>34</v>
       </c>
       <c r="K143" t="s">
@@ -7870,7 +7871,7 @@
       <c r="I144">
         <v>350</v>
       </c>
-      <c r="J144">
+      <c r="J144" s="2">
         <v>7</v>
       </c>
       <c r="K144" t="s">
@@ -7911,7 +7912,7 @@
       <c r="I145">
         <v>360</v>
       </c>
-      <c r="J145">
+      <c r="J145" s="2">
         <v>3.6</v>
       </c>
       <c r="K145" t="s">
@@ -7952,7 +7953,7 @@
       <c r="I146">
         <v>370</v>
       </c>
-      <c r="J146">
+      <c r="J146" s="2">
         <v>37</v>
       </c>
       <c r="K146" t="s">
@@ -7993,7 +7994,7 @@
       <c r="I147">
         <v>380</v>
       </c>
-      <c r="J147">
+      <c r="J147" s="2">
         <v>7.6</v>
       </c>
       <c r="K147" t="s">
@@ -8034,7 +8035,7 @@
       <c r="I148">
         <v>390</v>
       </c>
-      <c r="J148">
+      <c r="J148" s="2">
         <v>7.8</v>
       </c>
       <c r="K148" t="s">
@@ -8075,7 +8076,7 @@
       <c r="I149">
         <v>400</v>
       </c>
-      <c r="J149">
+      <c r="J149" s="2">
         <v>28.571428571428569</v>
       </c>
       <c r="K149" t="s">
@@ -8116,7 +8117,7 @@
       <c r="I150">
         <v>410</v>
       </c>
-      <c r="J150">
+      <c r="J150" s="2">
         <v>14.642857142857141</v>
       </c>
       <c r="K150" t="s">
@@ -8157,7 +8158,7 @@
       <c r="I151">
         <v>420</v>
       </c>
-      <c r="J151">
+      <c r="J151" s="2">
         <v>15</v>
       </c>
       <c r="K151" t="s">
@@ -8198,7 +8199,7 @@
       <c r="I152">
         <v>430</v>
       </c>
-      <c r="J152">
+      <c r="J152" s="2">
         <v>30.714285714285719</v>
       </c>
       <c r="K152" t="s">
@@ -8239,7 +8240,7 @@
       <c r="I153">
         <v>440</v>
       </c>
-      <c r="J153">
+      <c r="J153" s="2">
         <v>15.71428571428571</v>
       </c>
       <c r="K153" t="s">
@@ -8280,7 +8281,7 @@
       <c r="I154">
         <v>450</v>
       </c>
-      <c r="J154">
+      <c r="J154" s="2">
         <v>22.5</v>
       </c>
       <c r="K154" t="s">
@@ -8321,7 +8322,7 @@
       <c r="I155">
         <v>460</v>
       </c>
-      <c r="J155">
+      <c r="J155" s="2">
         <v>15.33333333333333</v>
       </c>
       <c r="K155" t="s">
@@ -8362,7 +8363,7 @@
       <c r="I156">
         <v>470</v>
       </c>
-      <c r="J156">
+      <c r="J156" s="2">
         <v>9.4</v>
       </c>
       <c r="K156" t="s">
@@ -8403,7 +8404,7 @@
       <c r="I157">
         <v>480</v>
       </c>
-      <c r="J157">
+      <c r="J157" s="2">
         <v>4.8</v>
       </c>
       <c r="K157" t="s">
@@ -8444,7 +8445,7 @@
       <c r="I158">
         <v>490</v>
       </c>
-      <c r="J158">
+      <c r="J158" s="2">
         <v>16.333333333333329</v>
       </c>
       <c r="K158" t="s">
@@ -8485,7 +8486,7 @@
       <c r="I159">
         <v>500</v>
       </c>
-      <c r="J159">
+      <c r="J159" s="2">
         <v>25</v>
       </c>
       <c r="K159" t="s">
@@ -8526,7 +8527,7 @@
       <c r="I160">
         <v>510</v>
       </c>
-      <c r="J160">
+      <c r="J160" s="2">
         <v>51</v>
       </c>
       <c r="K160" t="s">
@@ -8567,7 +8568,7 @@
       <c r="I161">
         <v>520</v>
       </c>
-      <c r="J161">
+      <c r="J161" s="2">
         <v>10.4</v>
       </c>
       <c r="K161" t="s">
@@ -8608,7 +8609,7 @@
       <c r="I162">
         <v>530</v>
       </c>
-      <c r="J162">
+      <c r="J162" s="2">
         <v>17.666666666666671</v>
       </c>
       <c r="K162" t="s">
@@ -8649,7 +8650,7 @@
       <c r="I163">
         <v>540</v>
       </c>
-      <c r="J163">
+      <c r="J163" s="2">
         <v>18</v>
       </c>
       <c r="K163" t="s">
@@ -8690,7 +8691,7 @@
       <c r="I164">
         <v>550</v>
       </c>
-      <c r="J164">
+      <c r="J164" s="2">
         <v>11</v>
       </c>
       <c r="K164" t="s">
@@ -8731,7 +8732,7 @@
       <c r="I165">
         <v>560</v>
       </c>
-      <c r="J165">
+      <c r="J165" s="2">
         <v>18.666666666666671</v>
       </c>
       <c r="K165" t="s">
@@ -8772,7 +8773,7 @@
       <c r="I166">
         <v>570</v>
       </c>
-      <c r="J166">
+      <c r="J166" s="2">
         <v>40.714285714285722</v>
       </c>
       <c r="K166" t="s">
@@ -8813,7 +8814,7 @@
       <c r="I167">
         <v>580</v>
       </c>
-      <c r="J167">
+      <c r="J167" s="2">
         <v>41.428571428571431</v>
       </c>
       <c r="K167" t="s">
@@ -8854,7 +8855,7 @@
       <c r="I168">
         <v>590</v>
       </c>
-      <c r="J168">
+      <c r="J168" s="2">
         <v>29.5</v>
       </c>
       <c r="K168" t="s">
@@ -8895,7 +8896,7 @@
       <c r="I169">
         <v>600</v>
       </c>
-      <c r="J169">
+      <c r="J169" s="2">
         <v>21.428571428571431</v>
       </c>
       <c r="K169" t="s">
@@ -8936,7 +8937,7 @@
       <c r="I170">
         <v>610</v>
       </c>
-      <c r="J170">
+      <c r="J170" s="2">
         <v>61</v>
       </c>
       <c r="K170" t="s">
@@ -8977,7 +8978,7 @@
       <c r="I171">
         <v>620</v>
       </c>
-      <c r="J171">
+      <c r="J171" s="2">
         <v>12.4</v>
       </c>
       <c r="K171" t="s">
@@ -9018,7 +9019,7 @@
       <c r="I172">
         <v>630</v>
       </c>
-      <c r="J172">
+      <c r="J172" s="2">
         <v>45</v>
       </c>
       <c r="K172" t="s">
@@ -9059,7 +9060,7 @@
       <c r="I173">
         <v>640</v>
       </c>
-      <c r="J173">
+      <c r="J173" s="2">
         <v>32</v>
       </c>
       <c r="K173" t="s">
@@ -9100,7 +9101,7 @@
       <c r="I174">
         <v>650</v>
       </c>
-      <c r="J174">
+      <c r="J174" s="2">
         <v>65</v>
       </c>
       <c r="K174" t="s">
@@ -9141,7 +9142,7 @@
       <c r="I175">
         <v>660</v>
       </c>
-      <c r="J175">
+      <c r="J175" s="2">
         <v>23.571428571428569</v>
       </c>
       <c r="K175" t="s">
@@ -9182,7 +9183,7 @@
       <c r="I176">
         <v>670</v>
       </c>
-      <c r="J176">
+      <c r="J176" s="2">
         <v>22.333333333333329</v>
       </c>
       <c r="K176" t="s">
@@ -9223,7 +9224,7 @@
       <c r="I177">
         <v>680</v>
       </c>
-      <c r="J177">
+      <c r="J177" s="2">
         <v>68</v>
       </c>
       <c r="K177" t="s">
@@ -9264,7 +9265,7 @@
       <c r="I178">
         <v>690</v>
       </c>
-      <c r="J178">
+      <c r="J178" s="2">
         <v>13.8</v>
       </c>
       <c r="K178" t="s">
@@ -9305,7 +9306,7 @@
       <c r="I179">
         <v>700</v>
       </c>
-      <c r="J179">
+      <c r="J179" s="2">
         <v>35</v>
       </c>
       <c r="K179" t="s">
@@ -9346,7 +9347,7 @@
       <c r="I180">
         <v>710</v>
       </c>
-      <c r="J180">
+      <c r="J180" s="2">
         <v>71</v>
       </c>
       <c r="K180" t="s">
@@ -9387,7 +9388,7 @@
       <c r="I181">
         <v>720</v>
       </c>
-      <c r="J181">
+      <c r="J181" s="2">
         <v>25.714285714285719</v>
       </c>
       <c r="K181" t="s">
@@ -9428,7 +9429,7 @@
       <c r="I182">
         <v>730</v>
       </c>
-      <c r="J182">
+      <c r="J182" s="2">
         <v>36.5</v>
       </c>
       <c r="K182" t="s">
@@ -9469,7 +9470,7 @@
       <c r="I183">
         <v>740</v>
       </c>
-      <c r="J183">
+      <c r="J183" s="2">
         <v>52.857142857142847</v>
       </c>
       <c r="K183" t="s">
@@ -9510,7 +9511,7 @@
       <c r="I184">
         <v>750</v>
       </c>
-      <c r="J184">
+      <c r="J184" s="2">
         <v>25</v>
       </c>
       <c r="K184" t="s">
@@ -9551,7 +9552,7 @@
       <c r="I185">
         <v>760</v>
       </c>
-      <c r="J185">
+      <c r="J185" s="2">
         <v>15.2</v>
       </c>
       <c r="K185" t="s">
@@ -9592,7 +9593,7 @@
       <c r="I186">
         <v>770</v>
       </c>
-      <c r="J186">
+      <c r="J186" s="2">
         <v>55</v>
       </c>
       <c r="K186" t="s">
@@ -9633,7 +9634,7 @@
       <c r="I187">
         <v>780</v>
       </c>
-      <c r="J187">
+      <c r="J187" s="2">
         <v>55.714285714285722</v>
       </c>
       <c r="K187" t="s">
@@ -9674,7 +9675,7 @@
       <c r="I188">
         <v>790</v>
       </c>
-      <c r="J188">
+      <c r="J188" s="2">
         <v>79</v>
       </c>
       <c r="K188" t="s">
@@ -9715,7 +9716,7 @@
       <c r="I189">
         <v>800</v>
       </c>
-      <c r="J189">
+      <c r="J189" s="2">
         <v>16</v>
       </c>
       <c r="K189" t="s">
@@ -9756,7 +9757,7 @@
       <c r="I190">
         <v>810</v>
       </c>
-      <c r="J190">
+      <c r="J190" s="2">
         <v>81</v>
       </c>
       <c r="K190" t="s">
@@ -9797,7 +9798,7 @@
       <c r="I191">
         <v>820</v>
       </c>
-      <c r="J191">
+      <c r="J191" s="2">
         <v>8.1999999999999993</v>
       </c>
       <c r="K191" t="s">
@@ -9838,7 +9839,7 @@
       <c r="I192">
         <v>830</v>
       </c>
-      <c r="J192">
+      <c r="J192" s="2">
         <v>8.3000000000000007</v>
       </c>
       <c r="K192" t="s">
@@ -9879,7 +9880,7 @@
       <c r="I193">
         <v>840</v>
       </c>
-      <c r="J193">
+      <c r="J193" s="2">
         <v>60</v>
       </c>
       <c r="K193" t="s">
@@ -9920,7 +9921,7 @@
       <c r="I194">
         <v>850</v>
       </c>
-      <c r="J194">
+      <c r="J194" s="2">
         <v>8.5</v>
       </c>
       <c r="K194" t="s">
